--- a/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_7_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1211755.372565522</v>
+        <v>1164981.156880043</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216496</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916862</v>
+        <v>278692.0725916874</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>69.92124921857179</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>152.355512532834</v>
       </c>
       <c r="C4" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347.0282754065533</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>61.15025282372549</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>154.9819547845447</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>166.8316574011715</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.8915546016272</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>243.5612656694178</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1196,7 +1196,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1534,19 +1534,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225661</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>235.4332463434451</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1816,13 +1816,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>16.05512456153178</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>56.72042565247631</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>45.76594660770947</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>111.26935662027</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2065,10 +2065,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225301</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>53.06991172717014</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800596</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2476,25 +2476,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>144.1266108076344</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>78.47678022721453</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>148.7223419617671</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>237.7893185997716</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520775963</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3484,13 +3484,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>107.3792913045956</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>50.29424103733277</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>82.64119670414655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3755,7 +3755,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3904,19 +3904,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>136.0564930766996</v>
       </c>
       <c r="I43" t="n">
-        <v>53.9004557069453</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3980,7 +3980,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773017</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>131.9969996527466</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>839.7357219218454</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>805.6336531456727</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4364,16 +4364,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>914.6089660449918</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>910.3632463850493</v>
       </c>
     </row>
     <row r="3">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
         <v>33.94366860160834</v>
@@ -4492,13 +4492,13 @@
         <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>958.7861344791625</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1378.839033424066</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
         <v>1697.183430080417</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>187.8381257054811</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>459.5121464321338</v>
+        <v>1411.894222676771</v>
       </c>
       <c r="C5" t="n">
-        <v>425.4100776559612</v>
+        <v>1377.792153900598</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5406968708098</v>
+        <v>941.8823690750428</v>
       </c>
       <c r="E5" t="n">
-        <v>363.806356069509</v>
+        <v>880.1144369298655</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>452.2470073390733</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233704</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087173</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087173</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087173</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.787858087173</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717422</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.9664787622</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.55210234689</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="U5" t="n">
-        <v>2042.329799663907</v>
+        <v>2262.397026790873</v>
       </c>
       <c r="V5" t="n">
-        <v>2042.329799663907</v>
+        <v>2262.397026790873</v>
       </c>
       <c r="W5" t="n">
-        <v>1637.474345074941</v>
+        <v>1857.541572201907</v>
       </c>
       <c r="X5" t="n">
-        <v>1218.331881654251</v>
+        <v>1438.399108781217</v>
       </c>
       <c r="Y5" t="n">
-        <v>810.0457579539049</v>
+        <v>1434.153389121275</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993464</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1025.155168760925</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
         <v>1055.760431341871</v>
@@ -4683,13 +4683,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>617.1474966153746</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>266.2978593068819</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>684.5077410748429</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1143.991608255756</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>2498.899221627944</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S7" t="n">
-        <v>2521.619329473852</v>
+        <v>2365.071900398559</v>
       </c>
       <c r="T7" t="n">
-        <v>2521.619329473852</v>
+        <v>2119.192453977014</v>
       </c>
       <c r="U7" t="n">
-        <v>2353.102503816103</v>
+        <v>1840.759453230119</v>
       </c>
       <c r="V7" t="n">
-        <v>2066.146995686534</v>
+        <v>1553.80394510055</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1281.777540686841</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606237</v>
+        <v>1036.385786020254</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>808.9661153343618</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.9340324416416</v>
+        <v>1197.718769568168</v>
       </c>
       <c r="C8" t="n">
-        <v>138.8319636654689</v>
+        <v>1163.616700791996</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>727.7069159664402</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4808,19 +4808,19 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1179.226652594814</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O8" t="n">
-        <v>1840.066707136593</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4829,25 +4829,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.64701815018</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294905</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y8" t="n">
-        <v>512.2184310291439</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
@@ -5048,7 +5048,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5078,13 +5078,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>845.969722159226</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>673.4080106424509</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5300178439736</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>188.8405254354695</v>
+        <v>188.840525435468</v>
       </c>
       <c r="K13" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066037</v>
       </c>
       <c r="L13" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745648</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1510.599766230692</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1265.208011564105</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1037.788340878213</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,34 +5285,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
@@ -5321,7 +5321,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5464,10 +5464,10 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V16" t="n">
         <v>1978.07327505821</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,43 +5522,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1039.174348374283</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>866.6126368575082</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5683,40 +5683,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878937</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.966900465229</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1454.966900465229</v>
       </c>
       <c r="Y19" t="n">
-        <v>1230.99296709327</v>
+        <v>1227.547229779337</v>
       </c>
     </row>
     <row r="20">
@@ -5756,10 +5756,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5832,22 +5832,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5920,40 +5920,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113118</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1673.387333437352</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,64 +5975,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="24">
@@ -6057,10 +6057,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I24" t="n">
         <v>128.3245134312372</v>
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>811.7546776883914</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J25" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2213.112338778418</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1926.156830648849</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1654.13042623514</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1408.738671568553</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1181.319000882661</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>228.5247761102221</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>1303.584742363081</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M29" t="n">
-        <v>2460.632577573632</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N29" t="n">
-        <v>3586.363561010079</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O29" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,22 +6543,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>927.0677766831641</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1863.724225168339</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1591.697820754631</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1346.306066088043</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.886395402151</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,13 +6707,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2298.070029268087</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2019.637028521192</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1732.681520391623</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1460.655115977914</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883846</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716096</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7096,49 +7096,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800065979</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745589</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955472</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113116</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338898</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530924</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173572</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173572</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471569</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050024</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303129</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.41112617356</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.529374268236</v>
+        <v>1476.384721759851</v>
       </c>
       <c r="X37" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.992967093264</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407372</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7202,22 +7202,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1062.363260807472</v>
+        <v>1003.573296407376</v>
       </c>
       <c r="C40" t="n">
-        <v>889.8015492906967</v>
+        <v>1003.573296407376</v>
       </c>
       <c r="D40" t="n">
-        <v>723.9235564922194</v>
+        <v>837.6953036088986</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>667.9372998596359</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>491.2302458213921</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>325.6389708472198</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>185.7367965375943</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7342,40 +7342,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.55153211312</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338902</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309244</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471573</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050028</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303133</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173564</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.993304878938</v>
+        <v>1476.384721759855</v>
       </c>
       <c r="X40" t="n">
-        <v>1481.601550212351</v>
+        <v>1230.992967093268</v>
       </c>
       <c r="Y40" t="n">
-        <v>1254.181879526459</v>
+        <v>1003.573296407376</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7418,43 +7418,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883914</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716164</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D43" t="n">
-        <v>473.3149733731391</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E43" t="n">
-        <v>473.3149733731391</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F43" t="n">
-        <v>296.6079193348953</v>
+        <v>405.2829163325273</v>
       </c>
       <c r="G43" t="n">
-        <v>296.6079193348953</v>
+        <v>239.691641358355</v>
       </c>
       <c r="H43" t="n">
-        <v>156.7057450252698</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7600,19 +7600,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.99296709327</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,64 +7634,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7728,22 +7728,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2404.930957497405</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>320.0858880793245</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -8149,7 +8149,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>321.5599966225773</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8216,7 +8216,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684628</v>
+        <v>72.80589558611206</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,13 +8225,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741958</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8371,10 +8371,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377826</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.94960388475511</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,22 +8456,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>866.2895820207509</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8945,10 +8945,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>127.53932913075</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10124,16 +10124,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10355,16 +10355,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>980.0845558810993</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627267</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>33.87289402612626</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>227.3655273957975</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>144.1344859240878</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>52.94985625022251</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627303</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>216.2362286424012</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>20.09260206285816</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>197.1718905122112</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>5.631333357557679</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>139.5921776627329</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.132153028924861</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.446659489836975</v>
       </c>
       <c r="I43" t="n">
-        <v>33.87289402612611</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>593868.3888850211</v>
+        <v>593868.3888850212</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620929.6963953226</v>
+        <v>620929.6963953224</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620929.6963953227</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>620929.6963953224</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620929.6963953227</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620929.6963953226</v>
+        <v>620929.6963953224</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>620929.6963953226</v>
+        <v>620929.6963953224</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620929.6963953227</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
+        <v>395143.1881030142</v>
+      </c>
+      <c r="F2" t="n">
         <v>395143.1881030143</v>
-      </c>
-      <c r="F2" t="n">
-        <v>395143.1881030142</v>
       </c>
       <c r="G2" t="n">
         <v>395143.1881030143</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030142</v>
@@ -26338,7 +26338,7 @@
         <v>395143.1881030142</v>
       </c>
       <c r="K2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
         <v>395143.1881030142</v>
@@ -26347,10 +26347,10 @@
         <v>395143.1881030141</v>
       </c>
       <c r="N2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="O2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="P2" t="n">
         <v>395143.1881030142</v>
@@ -26366,10 +26366,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501596</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998296</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877235</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622472</v>
+        <v>9392.301726622112</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210792.2686648238</v>
+        <v>213733.2008684792</v>
       </c>
       <c r="C4" t="n">
-        <v>177969.3852340666</v>
+        <v>181924.0421275401</v>
       </c>
       <c r="D4" t="n">
-        <v>172059.5528814115</v>
+        <v>176196.7331348823</v>
       </c>
       <c r="E4" t="n">
-        <v>92027.5720735299</v>
+        <v>98472.75636592979</v>
       </c>
       <c r="F4" t="n">
-        <v>92027.57207352987</v>
+        <v>98472.7563659298</v>
       </c>
       <c r="G4" t="n">
-        <v>92027.57207352988</v>
+        <v>98472.75636592979</v>
       </c>
       <c r="H4" t="n">
-        <v>92027.57207352988</v>
+        <v>98472.75636592977</v>
       </c>
       <c r="I4" t="n">
-        <v>92027.57207352988</v>
+        <v>98472.75636592982</v>
       </c>
       <c r="J4" t="n">
-        <v>92027.57207352988</v>
+        <v>98472.75636592985</v>
       </c>
       <c r="K4" t="n">
-        <v>92027.57207352987</v>
+        <v>98472.75636592985</v>
       </c>
       <c r="L4" t="n">
-        <v>92027.57207352988</v>
+        <v>98472.75636592985</v>
       </c>
       <c r="M4" t="n">
-        <v>92027.57207352987</v>
+        <v>98472.75636592974</v>
       </c>
       <c r="N4" t="n">
-        <v>92027.57207352985</v>
+        <v>98472.75636592976</v>
       </c>
       <c r="O4" t="n">
-        <v>92027.5720735299</v>
+        <v>98472.75636592974</v>
       </c>
       <c r="P4" t="n">
-        <v>92027.57207352988</v>
+        <v>98472.75636592979</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26488,7 +26488,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26497,7 +26497,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26509,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10297.86754394963</v>
+        <v>-13238.79974760513</v>
       </c>
       <c r="C6" t="n">
-        <v>85597.12298072129</v>
+        <v>81642.46608724727</v>
       </c>
       <c r="D6" t="n">
-        <v>144310.8169246542</v>
+        <v>140173.6366711837</v>
       </c>
       <c r="E6" t="n">
-        <v>43042.2682026421</v>
+        <v>36573.85957085949</v>
       </c>
       <c r="F6" t="n">
-        <v>225397.3774236918</v>
+        <v>218928.9687919094</v>
       </c>
       <c r="G6" t="n">
-        <v>225397.3774236919</v>
+        <v>218928.9687919093</v>
       </c>
       <c r="H6" t="n">
-        <v>225397.3774236918</v>
+        <v>218928.9687919092</v>
       </c>
       <c r="I6" t="n">
-        <v>225397.3774236918</v>
+        <v>218928.9687919093</v>
       </c>
       <c r="J6" t="n">
-        <v>114382.9120787016</v>
+        <v>107914.5034469191</v>
       </c>
       <c r="K6" t="n">
-        <v>172351.5227849194</v>
+        <v>165883.1141531365</v>
       </c>
       <c r="L6" t="n">
-        <v>216005.0756970693</v>
+        <v>209536.6670652871</v>
       </c>
       <c r="M6" t="n">
-        <v>73197.20648570399</v>
+        <v>66728.79785392151</v>
       </c>
       <c r="N6" t="n">
-        <v>225397.3774236918</v>
+        <v>218928.9687919093</v>
       </c>
       <c r="O6" t="n">
-        <v>225397.3774236919</v>
+        <v>218928.9687919092</v>
       </c>
       <c r="P6" t="n">
-        <v>225397.3774236918</v>
+        <v>218928.9687919093</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26790,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26808,7 +26808,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27012,10 +27012,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.1103742393926</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>352.1153255614869</v>
       </c>
       <c r="C2" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>37.54491999896322</v>
       </c>
       <c r="C4" t="n">
-        <v>64.77345775114105</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.00829937350539</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>368.2867445695622</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>2.66700023043856</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>108.8170133382542</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.14502017843148</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>185.87573172387</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.50022678360063e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.449735861371308e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-7.035521382951056e-13</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-5.220349312471573e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-6.043098397672888e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-7.641780219240337e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30414,7 +30414,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-3.508574624958176e-12</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30633,7 +30633,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-2.80933945803581e-12</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-4.029351250961296e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34860,7 +34860,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>320.0858880793245</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -34869,7 +34869,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>321.5599966225773</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684628</v>
+        <v>72.80589558611206</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34945,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611018</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35012,13 +35012,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684631</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>30.91440664741958</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35036,7 +35036,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377826</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.94960388475511</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>30.03100411261585</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35416,10 +35416,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743907922</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>866.2895820207509</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35665,10 +35665,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36051,7 +36051,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955992</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512943</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36288,10 +36288,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955953</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36434,10 +36434,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>127.53932913075</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36844,16 +36844,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37075,16 +37075,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>980.0845558810993</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37464,7 +37464,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960893</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37710,10 +37710,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955972</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38093,10 +38093,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38178,7 +38178,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
